--- a/biology/Botanique/Square_Auguste-Renoir/Square_Auguste-Renoir.xlsx
+++ b/biology/Botanique/Square_Auguste-Renoir/Square_Auguste-Renoir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le square Auguste-Renoir, appelé auparavant, pour partie, « impasse des Omnibus », est une voie[1] du 14e arrondissement de Paris, ouverte par la Société anonyme de gestion immobilière en 1962.
+Le square Auguste-Renoir, appelé auparavant, pour partie, « impasse des Omnibus », est une voie du 14e arrondissement de Paris, ouverte par la Société anonyme de gestion immobilière en 1962.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On accède à ce square par la rue des Arbustes et la rue des Mariniers.
 Ce site est desservi par la ligne 13 à la station de métro Porte de Vanves.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit son nom au peintre Pierre Auguste Renoir (1841-1919).
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette voie est ouverte en 1962 par la SAGI (Société anonyme de gestion immobilière) sur l'emplacement d'une partie de l'impasse des Omnibus, car elle conduisait à un dépôt de la compagnie. Elle prend le nom de « square Auguste-Renoir » par décret préfectoral du 12 mars 1963.
 </t>
